--- a/excelhere/room_one.xlsx
+++ b/excelhere/room_one.xlsx
@@ -442,9 +442,21 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr"/>
-      <c r="B1" t="inlineStr"/>
-      <c r="C1" t="inlineStr"/>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
       <c r="D1" t="inlineStr">
         <is>
           <t>1</t>
@@ -471,10 +483,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>번호</t>
-        </is>
+      <c r="A1" t="n">
+        <v>1</v>
       </c>
       <c r="B1" t="inlineStr">
         <is>
@@ -532,10 +542,6 @@
       <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="G2">
-        <f>F2*E2</f>
-        <v/>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -562,10 +568,6 @@
       <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="G3">
-        <f>F3*E3</f>
-        <v/>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -592,10 +594,6 @@
       <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="G4">
-        <f>F4*E4</f>
-        <v/>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -622,10 +620,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5">
-        <f>F5*E5</f>
-        <v/>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -652,10 +646,6 @@
       <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="G6">
-        <f>F6*E6</f>
-        <v/>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -682,10 +672,6 @@
       <c r="F7" t="n">
         <v>0</v>
       </c>
-      <c r="G7">
-        <f>F7*E7</f>
-        <v/>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -712,10 +698,6 @@
       <c r="F8" t="n">
         <v>0</v>
       </c>
-      <c r="G8">
-        <f>F8*E8</f>
-        <v/>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -742,10 +724,6 @@
       <c r="F9" t="n">
         <v>0</v>
       </c>
-      <c r="G9">
-        <f>F9*E9</f>
-        <v/>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -772,10 +750,6 @@
       <c r="F10" t="n">
         <v>0</v>
       </c>
-      <c r="G10">
-        <f>F10*E10</f>
-        <v/>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -802,10 +776,6 @@
       <c r="F11" t="n">
         <v>0</v>
       </c>
-      <c r="G11">
-        <f>F11*E11</f>
-        <v/>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -832,10 +802,6 @@
       <c r="F12" t="n">
         <v>0</v>
       </c>
-      <c r="G12">
-        <f>F12*E12</f>
-        <v/>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -862,10 +828,6 @@
       <c r="F13" t="n">
         <v>0</v>
       </c>
-      <c r="G13">
-        <f>F13*E13</f>
-        <v/>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -892,10 +854,6 @@
       <c r="F14" t="n">
         <v>0</v>
       </c>
-      <c r="G14">
-        <f>F14*E14</f>
-        <v/>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -922,10 +880,6 @@
       <c r="F15" t="n">
         <v>0</v>
       </c>
-      <c r="G15">
-        <f>F15*E15</f>
-        <v/>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -952,10 +906,6 @@
       <c r="F16" t="n">
         <v>0</v>
       </c>
-      <c r="G16">
-        <f>F16*E16</f>
-        <v/>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -982,10 +932,6 @@
       <c r="F17" t="n">
         <v>0</v>
       </c>
-      <c r="G17">
-        <f>F17*E17</f>
-        <v/>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1012,10 +958,6 @@
       <c r="F18" t="n">
         <v>0</v>
       </c>
-      <c r="G18">
-        <f>F18*E18</f>
-        <v/>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1042,10 +984,6 @@
       <c r="F19" t="n">
         <v>0</v>
       </c>
-      <c r="G19">
-        <f>F19*E19</f>
-        <v/>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1072,10 +1010,6 @@
       <c r="F20" t="n">
         <v>0</v>
       </c>
-      <c r="G20">
-        <f>F20*E20</f>
-        <v/>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1102,10 +1036,6 @@
       <c r="F21" t="n">
         <v>0</v>
       </c>
-      <c r="G21">
-        <f>F21*E21</f>
-        <v/>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1132,10 +1062,6 @@
       <c r="F22" t="n">
         <v>0</v>
       </c>
-      <c r="G22">
-        <f>F22*E22</f>
-        <v/>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1162,10 +1088,6 @@
       <c r="F23" t="n">
         <v>0</v>
       </c>
-      <c r="G23">
-        <f>F23*E23</f>
-        <v/>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1192,10 +1114,6 @@
       <c r="F24" t="n">
         <v>0</v>
       </c>
-      <c r="G24">
-        <f>F24*E24</f>
-        <v/>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1222,10 +1140,6 @@
       <c r="F25" t="n">
         <v>0</v>
       </c>
-      <c r="G25">
-        <f>F25*E25</f>
-        <v/>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1252,10 +1166,6 @@
       <c r="F26" t="n">
         <v>0</v>
       </c>
-      <c r="G26">
-        <f>F26*E26</f>
-        <v/>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1282,10 +1192,6 @@
       <c r="F27" t="n">
         <v>0</v>
       </c>
-      <c r="G27">
-        <f>F27*E27</f>
-        <v/>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1312,10 +1218,6 @@
       <c r="F28" t="n">
         <v>0</v>
       </c>
-      <c r="G28">
-        <f>F28*E28</f>
-        <v/>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1342,10 +1244,6 @@
       <c r="F29" t="n">
         <v>0</v>
       </c>
-      <c r="G29">
-        <f>F29*E29</f>
-        <v/>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1372,10 +1270,6 @@
       <c r="F30" t="n">
         <v>0</v>
       </c>
-      <c r="G30">
-        <f>F30*E30</f>
-        <v/>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1402,10 +1296,6 @@
       <c r="F31" t="n">
         <v>0</v>
       </c>
-      <c r="G31">
-        <f>F31*E31</f>
-        <v/>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1432,10 +1322,6 @@
       <c r="F32" t="n">
         <v>0</v>
       </c>
-      <c r="G32">
-        <f>F32*E32</f>
-        <v/>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1462,10 +1348,6 @@
       <c r="F33" t="n">
         <v>0</v>
       </c>
-      <c r="G33">
-        <f>F33*E33</f>
-        <v/>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1492,10 +1374,6 @@
       <c r="F34" t="n">
         <v>0</v>
       </c>
-      <c r="G34">
-        <f>F34*E34</f>
-        <v/>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1522,10 +1400,6 @@
       <c r="F35" t="n">
         <v>0</v>
       </c>
-      <c r="G35">
-        <f>F35*E35</f>
-        <v/>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1552,10 +1426,6 @@
       <c r="F36" t="n">
         <v>0</v>
       </c>
-      <c r="G36">
-        <f>F36*E36</f>
-        <v/>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1582,10 +1452,6 @@
       <c r="F37" t="n">
         <v>0</v>
       </c>
-      <c r="G37">
-        <f>F37*E37</f>
-        <v/>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1612,10 +1478,6 @@
       <c r="F38" t="n">
         <v>0</v>
       </c>
-      <c r="G38">
-        <f>F38*E38</f>
-        <v/>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1642,10 +1504,6 @@
       <c r="F39" t="n">
         <v>0</v>
       </c>
-      <c r="G39">
-        <f>F39*E39</f>
-        <v/>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1671,10 +1529,6 @@
       </c>
       <c r="F40" t="n">
         <v>0</v>
-      </c>
-      <c r="G40">
-        <f>F40*E40</f>
-        <v/>
       </c>
     </row>
   </sheetData>

--- a/excelhere/room_one.xlsx
+++ b/excelhere/room_one.xlsx
@@ -442,21 +442,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>asdf</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>sadf</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>asdf</t>
-        </is>
-      </c>
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr"/>
+      <c r="C1" t="inlineStr"/>
       <c r="D1" t="inlineStr">
         <is>
           <t>1</t>

--- a/excelhere/room_one.xlsx
+++ b/excelhere/room_one.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="personal_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="items" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>

--- a/excelhere/room_one.xlsx
+++ b/excelhere/room_one.xlsx
@@ -433,37 +433,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>1111</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>1111</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>1111</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/excelhere/room_one.xlsx
+++ b/excelhere/room_one.xlsx
@@ -433,14 +433,37 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>qwer</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>qwer</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/excelhere/room_one.xlsx
+++ b/excelhere/room_one.xlsx
@@ -444,17 +444,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>wer</t>
+          <t>id 저장</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>qwer</t>
+          <t>고인명 저장</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>qwer</t>
+          <t>상주명 저장</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -474,14 +474,103 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>접시180(1)</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>맥주</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>양념치킨</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>에너지 드링크</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>캔</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1800</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1800</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/excelhere/room_one.xlsx
+++ b/excelhere/room_one.xlsx
@@ -444,17 +444,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>id 저장</t>
+          <t>dfg</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>고인명 저장</t>
+          <t>cgh</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>상주명 저장</t>
+          <t>vg</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>접시180(1)</t>
+          <t>수세미</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="D1" t="n">
         <v>1</v>
       </c>
       <c r="E1" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>맥주</t>
+          <t>부의봉투</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -515,19 +515,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4000</v>
+        <v>800</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>4000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>양념치킨</t>
+          <t>에어베게</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -536,38 +536,76 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9000</v>
+        <v>2600</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>9000</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>에너지 드링크</t>
+          <t>녹말요지</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>캔</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1800</t>
-        </is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1100</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1800</t>
-        </is>
+      <c r="E4" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>신라면(컵)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>930</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>밥공기(1)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6000</v>
       </c>
     </row>
   </sheetData>

--- a/excelhere/room_one.xlsx
+++ b/excelhere/room_one.xlsx
@@ -444,17 +444,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>dfg</t>
+          <t>hj</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>cgh</t>
+          <t>hjv</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>vg</t>
+          <t>bhj</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>수세미</t>
+          <t>노트</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="D1" t="n">
         <v>1</v>
       </c>
       <c r="E1" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>부의봉투</t>
+          <t>밥공기(1)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -515,19 +515,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>800</v>
+        <v>6000</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>800</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>에어베게</t>
+          <t>접시100</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -536,76 +536,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2600</v>
+        <v>1000</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>녹말요지</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>신라면(컵)</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>930</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>밥공기(1)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>6000</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/excelhere/room_one.xlsx
+++ b/excelhere/room_one.xlsx
@@ -444,17 +444,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>hj</t>
+          <t>111</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>hjv</t>
+          <t>111</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>bhj</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>노트</t>
+          <t>녹말요지</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -494,55 +494,13 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="D1" t="n">
         <v>1</v>
       </c>
       <c r="E1" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>밥공기(1)</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>접시100</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
     </row>
   </sheetData>

--- a/excelhere/room_one.xlsx
+++ b/excelhere/room_one.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>녹말요지</t>
+          <t>접시100</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -494,13 +494,210 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="D1" t="n">
         <v>1</v>
       </c>
       <c r="E1" t="n">
-        <v>1100</v>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>종이컵</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>줄</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>접시140</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>에어베게</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2600</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>신라면(컵)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>930</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>맥주</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>drink</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>에너지 드링크</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>캔</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1800</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1800</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>닭볶음탕</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>대패삼겹살</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/excelhere/room_one.xlsx
+++ b/excelhere/room_one.xlsx
@@ -442,21 +442,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr"/>
+      <c r="C1" t="inlineStr"/>
       <c r="D1" t="inlineStr">
         <is>
           <t>1</t>
@@ -474,233 +462,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>접시100</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>종이컵</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>줄</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>접시140</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>에어베게</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2600</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>신라면(컵)</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>930</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>맥주</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4000</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>drink</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ea</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>에너지 드링크</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>캔</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1800</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1800</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>닭볶음탕</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>9000</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>대패삼겹살</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/excelhere/room_one.xlsx
+++ b/excelhere/room_one.xlsx
@@ -442,9 +442,21 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr"/>
-      <c r="B1" t="inlineStr"/>
-      <c r="C1" t="inlineStr"/>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>11232</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>extreme</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>blackmaka</t>
+        </is>
+      </c>
       <c r="D1" t="inlineStr">
         <is>
           <t>1</t>
@@ -462,14 +474,99 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>신라면(컵)</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>930</v>
+      </c>
+      <c r="D1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1" t="n">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>에어베게</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2600</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>접시180(1)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>콜라</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/excelhere/room_one.xlsx
+++ b/excelhere/room_one.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,69 +503,6 @@
         <v>930</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>에어베게</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2600</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>접시180(1)</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>콜라</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1000</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excelhere/room_one.xlsx
+++ b/excelhere/room_one.xlsx
@@ -444,17 +444,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>11232</t>
+          <t>0001</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>extreme</t>
+          <t>전태화</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>blackmaka</t>
+          <t>황성윤</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -485,7 +485,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>신라면(컵)</t>
+          <t>고무장갑</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>930</v>
+        <v>2300</v>
       </c>
       <c r="D1" t="n">
         <v>1</v>
       </c>
       <c r="E1" t="n">
-        <v>930</v>
+        <v>2300</v>
       </c>
     </row>
   </sheetData>

--- a/excelhere/room_one.xlsx
+++ b/excelhere/room_one.xlsx
@@ -444,17 +444,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>0001</t>
+          <t>99393</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>전태화</t>
+          <t>dk</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>황성윤</t>
+          <t>dk</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>고무장갑</t>
+          <t>사이다</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -494,13 +494,55 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="D1" t="n">
         <v>1</v>
       </c>
       <c r="E1" t="n">
-        <v>2300</v>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>소주</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>편육</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12000</v>
       </c>
     </row>
   </sheetData>
